--- a/data/hanzo-cloud/hanzo-auth-center_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-auth-center_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6737" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="523">
   <si>
     <t>Class Name</t>
   </si>
@@ -1113,39 +1113,39 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>com.xkcoding.justauth.AuthRequestFactory</t>
+  </si>
+  <si>
+    <t>socialUserAuthService</t>
+  </si>
+  <si>
+    <t>redisClientDetailsService</t>
+  </si>
+  <si>
+    <t>userManager</t>
+  </si>
+  <si>
     <t>passwordEncoder</t>
   </si>
   <si>
-    <t>redisClientDetailsService</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>sysSocialUserService</t>
+  </si>
+  <si>
     <t>jwtParamConfig</t>
   </si>
   <si>
     <t>granter</t>
   </si>
   <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>com.xkcoding.justauth.AuthRequestFactory</t>
-  </si>
-  <si>
-    <t>socialUserAuthService</t>
-  </si>
-  <si>
-    <t>sysSocialUserService</t>
-  </si>
-  <si>
-    <t>userManager</t>
-  </si>
-  <si>
     <t>socialLoginService</t>
   </si>
   <si>
@@ -1158,39 +1158,39 @@
     <t>authenticationManager</t>
   </si>
   <si>
+    <t>exceptionTranslator</t>
+  </si>
+  <si>
+    <t>redisConnectionFactory</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.connection.RedisConnectionFactory</t>
+  </si>
+  <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
+    <t>org.springframework.security.core.userdetails.UserDetailsService</t>
+  </si>
+  <si>
     <t>authenticationCodeService</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>org.springframework.security.core.userdetails.UserDetailsService</t>
-  </si>
-  <si>
-    <t>exceptionTranslator</t>
-  </si>
-  <si>
-    <t>redisConnectionFactory</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.connection.RedisConnectionFactory</t>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>jti</t>
+  </si>
+  <si>
+    <t>expires_in</t>
   </si>
   <si>
     <t>token_type</t>
   </si>
   <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>jti</t>
-  </si>
-  <si>
-    <t>access_token</t>
-  </si>
-  <si>
-    <t>expires_in</t>
-  </si>
-  <si>
     <t>refresh_token</t>
   </si>
   <si>
@@ -1200,78 +1200,87 @@
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>deptIds</t>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>sex</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>isTab</t>
+  </si>
+  <si>
+    <t>deptId</t>
+  </si>
+  <si>
+    <t>deptName</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
   </si>
   <si>
     <t>theme</t>
   </si>
   <si>
-    <t>deptIds</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>deptId</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>lastLoginTime</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>isTab</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>deptName</t>
-  </si>
-  <si>
-    <t>modifyTime</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>createTime</t>
+    <t>socialNickName</t>
+  </si>
+  <si>
+    <t>socialUserName</t>
+  </si>
+  <si>
+    <t>remake</t>
+  </si>
+  <si>
+    <t>socialUserId</t>
   </si>
   <si>
     <t>socialImageUrl</t>
   </si>
   <si>
-    <t>socialUserId</t>
-  </si>
-  <si>
     <t>socialName</t>
   </si>
   <si>
@@ -1281,24 +1290,15 @@
     <t>location</t>
   </si>
   <si>
-    <t>remake</t>
-  </si>
-  <si>
-    <t>socialUserName</t>
-  </si>
-  <si>
-    <t>socialNickName</t>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.service.RedisService</t>
   </si>
   <si>
     <t>connectionFactory</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.service.RedisService</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
@@ -1311,15 +1311,15 @@
     <t>validateCodeService</t>
   </si>
   <si>
+    <t>logger</t>
+  </si>
+  <si>
+    <t>org.apache.commons.logging.Log</t>
+  </si>
+  <si>
     <t>ALREADY_FILTERED_SUFFIX</t>
   </si>
   <si>
-    <t>logger</t>
-  </si>
-  <si>
-    <t>org.apache.commons.logging.Log</t>
-  </si>
-  <si>
     <t>sysUserRoleMapper</t>
   </si>
   <si>
@@ -1341,46 +1341,46 @@
     <t>org.springframework.security.oauth2.provider.token.ConsumerTokenServices</t>
   </si>
   <si>
+    <t>menuName</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>perms</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
-    <t>menuName</t>
-  </si>
-  <si>
-    <t>component</t>
+    <t>orderNum</t>
+  </si>
+  <si>
+    <t>menuId</t>
   </si>
   <si>
     <t>parentId</t>
   </si>
   <si>
-    <t>perms</t>
-  </si>
-  <si>
-    <t>orderNum</t>
-  </si>
-  <si>
-    <t>menuId</t>
+    <t>anonUrlsParamConfig</t>
   </si>
   <si>
     <t>validateCodeFilter</t>
   </si>
   <si>
-    <t>anonUrlsParamConfig</t>
-  </si>
-  <si>
     <t>baseRedisService</t>
   </si>
   <si>
     <t>com.hanzo.common.service.BaseRedisService</t>
   </si>
   <si>
+    <t>bindUsername</t>
+  </si>
+  <si>
     <t>bindPassword</t>
-  </si>
-  <si>
-    <t>bindUsername</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -12617,7 +12617,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C339"/>
+  <dimension ref="A1:C349"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12639,10 +12639,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3">
@@ -12650,7 +12650,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>475</v>
@@ -12661,7 +12661,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>475</v>
@@ -12669,13 +12669,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
@@ -12683,7 +12683,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>499</v>
@@ -12694,10 +12694,10 @@
         <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8">
@@ -12705,10 +12705,10 @@
         <v>32</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9">
@@ -12716,21 +12716,21 @@
         <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>347</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11">
@@ -12738,7 +12738,7 @@
         <v>344</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>505</v>
@@ -12749,7 +12749,7 @@
         <v>344</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>505</v>
@@ -12760,7 +12760,7 @@
         <v>344</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>505</v>
@@ -12771,10 +12771,10 @@
         <v>344</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>506</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15">
@@ -12782,7 +12782,7 @@
         <v>344</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>476</v>
@@ -12790,13 +12790,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>46</v>
+        <v>507</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17">
@@ -12804,7 +12804,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>475</v>
@@ -12815,7 +12815,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>475</v>
@@ -12826,7 +12826,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>475</v>
@@ -12837,7 +12837,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>475</v>
@@ -12848,10 +12848,10 @@
         <v>43</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22">
@@ -12859,10 +12859,10 @@
         <v>43</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>475</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23">
@@ -12870,10 +12870,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24">
@@ -12881,18 +12881,18 @@
         <v>43</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>475</v>
@@ -12900,46 +12900,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>505</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30">
@@ -12947,10 +12947,10 @@
         <v>58</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>478</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31">
@@ -12958,10 +12958,10 @@
         <v>58</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32">
@@ -12969,10 +12969,10 @@
         <v>58</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33">
@@ -12980,10 +12980,10 @@
         <v>58</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34">
@@ -12991,10 +12991,10 @@
         <v>58</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35">
@@ -13002,51 +13002,51 @@
         <v>58</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>476</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>504</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>476</v>
@@ -13054,79 +13054,79 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>458</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47">
@@ -13134,7 +13134,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>475</v>
@@ -13145,7 +13145,7 @@
         <v>40</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>475</v>
@@ -13156,7 +13156,7 @@
         <v>40</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>475</v>
@@ -13167,7 +13167,7 @@
         <v>40</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>475</v>
@@ -13178,7 +13178,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>475</v>
@@ -13189,7 +13189,7 @@
         <v>40</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>475</v>
@@ -13200,7 +13200,7 @@
         <v>40</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>475</v>
@@ -13211,7 +13211,7 @@
         <v>40</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>475</v>
@@ -13222,7 +13222,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>475</v>
@@ -13233,10 +13233,10 @@
         <v>40</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>510</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57">
@@ -13244,7 +13244,7 @@
         <v>40</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>475</v>
@@ -13255,10 +13255,10 @@
         <v>40</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59">
@@ -13266,7 +13266,7 @@
         <v>40</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>475</v>
@@ -13274,76 +13274,76 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>475</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>475</v>
@@ -13351,21 +13351,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>475</v>
@@ -13376,10 +13376,10 @@
         <v>101</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70">
@@ -13387,7 +13387,7 @@
         <v>101</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>475</v>
@@ -13398,7 +13398,7 @@
         <v>101</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>475</v>
@@ -13409,7 +13409,7 @@
         <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>475</v>
@@ -13420,7 +13420,7 @@
         <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>475</v>
@@ -13431,7 +13431,7 @@
         <v>101</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>475</v>
@@ -13442,7 +13442,7 @@
         <v>101</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>475</v>
@@ -13453,7 +13453,7 @@
         <v>101</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>475</v>
@@ -13464,7 +13464,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>475</v>
@@ -13475,7 +13475,7 @@
         <v>101</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>475</v>
@@ -13486,7 +13486,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>475</v>
@@ -13497,7 +13497,7 @@
         <v>101</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>475</v>
@@ -13508,7 +13508,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>475</v>
@@ -13519,7 +13519,7 @@
         <v>101</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>475</v>
@@ -13530,7 +13530,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>475</v>
@@ -13541,7 +13541,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>475</v>
@@ -13552,7 +13552,7 @@
         <v>101</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>475</v>
@@ -13563,7 +13563,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>475</v>
@@ -13574,7 +13574,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>475</v>
@@ -13585,7 +13585,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>475</v>
@@ -13596,7 +13596,7 @@
         <v>101</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>475</v>
@@ -13607,7 +13607,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>475</v>
@@ -13618,7 +13618,7 @@
         <v>101</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>475</v>
@@ -13629,7 +13629,7 @@
         <v>101</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>475</v>
@@ -13640,7 +13640,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>475</v>
@@ -13651,7 +13651,7 @@
         <v>101</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>475</v>
@@ -13662,7 +13662,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>475</v>
@@ -13673,7 +13673,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>475</v>
@@ -13684,7 +13684,7 @@
         <v>101</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>475</v>
@@ -13695,7 +13695,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>475</v>
@@ -13706,7 +13706,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>475</v>
@@ -13717,7 +13717,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>475</v>
@@ -13728,7 +13728,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>475</v>
@@ -13739,7 +13739,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>475</v>
@@ -13750,7 +13750,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>475</v>
@@ -13761,7 +13761,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>475</v>
@@ -13772,7 +13772,7 @@
         <v>101</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>475</v>
@@ -13783,7 +13783,7 @@
         <v>101</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>475</v>
@@ -13794,10 +13794,10 @@
         <v>101</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108">
@@ -13805,7 +13805,7 @@
         <v>101</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>475</v>
@@ -13816,18 +13816,18 @@
         <v>101</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>512</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>475</v>
@@ -13835,10 +13835,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>475</v>
@@ -13846,10 +13846,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>475</v>
@@ -13857,21 +13857,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>475</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>475</v>
@@ -13879,13 +13879,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>475</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116">
@@ -13893,7 +13893,7 @@
         <v>42</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>475</v>
@@ -13904,7 +13904,7 @@
         <v>42</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>475</v>
@@ -13915,7 +13915,7 @@
         <v>42</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>475</v>
@@ -13926,7 +13926,7 @@
         <v>42</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>475</v>
@@ -13937,7 +13937,7 @@
         <v>42</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>475</v>
@@ -13948,7 +13948,7 @@
         <v>42</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>475</v>
@@ -13959,7 +13959,7 @@
         <v>42</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>475</v>
@@ -13970,7 +13970,7 @@
         <v>42</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>475</v>
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>475</v>
@@ -13992,7 +13992,7 @@
         <v>42</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>475</v>
@@ -14003,7 +14003,7 @@
         <v>42</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>475</v>
@@ -14014,7 +14014,7 @@
         <v>42</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>475</v>
@@ -14025,10 +14025,10 @@
         <v>42</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>513</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129">
@@ -14036,7 +14036,7 @@
         <v>42</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>475</v>
@@ -14047,150 +14047,150 @@
         <v>42</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>514</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>505</v>
@@ -14198,175 +14198,175 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>515</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>458</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>516</v>
+        <v>458</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>488</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>517</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>476</v>
@@ -14374,131 +14374,131 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>475</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>518</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>475</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>519</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>475</v>
@@ -14506,76 +14506,76 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>486</v>
+        <v>518</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>475</v>
@@ -14583,197 +14583,197 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>484</v>
+        <v>519</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>471</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>520</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>458</v>
+        <v>520</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>476</v>
@@ -14781,120 +14781,120 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>475</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>509</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>505</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>505</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>475</v>
@@ -14902,10 +14902,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>475</v>
@@ -14913,21 +14913,21 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>475</v>
@@ -14935,21 +14935,21 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>475</v>
@@ -14957,54 +14957,54 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>475</v>
@@ -15012,10 +15012,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>475</v>
@@ -15026,10 +15026,10 @@
         <v>190</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220">
@@ -15037,7 +15037,7 @@
         <v>190</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>475</v>
@@ -15048,7 +15048,7 @@
         <v>190</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>475</v>
@@ -15059,7 +15059,7 @@
         <v>190</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>475</v>
@@ -15070,7 +15070,7 @@
         <v>190</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>475</v>
@@ -15081,7 +15081,7 @@
         <v>190</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>475</v>
@@ -15092,7 +15092,7 @@
         <v>190</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>475</v>
@@ -15103,7 +15103,7 @@
         <v>190</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>475</v>
@@ -15114,7 +15114,7 @@
         <v>190</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>475</v>
@@ -15125,7 +15125,7 @@
         <v>190</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>475</v>
@@ -15136,7 +15136,7 @@
         <v>190</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>475</v>
@@ -15147,7 +15147,7 @@
         <v>190</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>475</v>
@@ -15158,7 +15158,7 @@
         <v>190</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>475</v>
@@ -15169,7 +15169,7 @@
         <v>190</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>475</v>
@@ -15180,7 +15180,7 @@
         <v>190</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>475</v>
@@ -15191,7 +15191,7 @@
         <v>190</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>475</v>
@@ -15202,7 +15202,7 @@
         <v>190</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>475</v>
@@ -15213,7 +15213,7 @@
         <v>190</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>475</v>
@@ -15224,7 +15224,7 @@
         <v>190</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>475</v>
@@ -15235,7 +15235,7 @@
         <v>190</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>475</v>
@@ -15246,7 +15246,7 @@
         <v>190</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>475</v>
@@ -15257,7 +15257,7 @@
         <v>190</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>475</v>
@@ -15268,7 +15268,7 @@
         <v>190</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>475</v>
@@ -15279,7 +15279,7 @@
         <v>190</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>475</v>
@@ -15290,7 +15290,7 @@
         <v>190</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>475</v>
@@ -15301,7 +15301,7 @@
         <v>190</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>475</v>
@@ -15312,7 +15312,7 @@
         <v>190</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>475</v>
@@ -15323,7 +15323,7 @@
         <v>190</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>475</v>
@@ -15334,7 +15334,7 @@
         <v>190</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>475</v>
@@ -15345,7 +15345,7 @@
         <v>190</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>475</v>
@@ -15356,10 +15356,10 @@
         <v>190</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>521</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250">
@@ -15367,7 +15367,7 @@
         <v>190</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>475</v>
@@ -15378,29 +15378,29 @@
         <v>190</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>475</v>
@@ -15408,10 +15408,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>475</v>
@@ -15419,10 +15419,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>475</v>
@@ -15430,10 +15430,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>475</v>
@@ -15441,10 +15441,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>475</v>
@@ -15452,76 +15452,76 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>475</v>
+        <v>521</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>459</v>
+        <v>485</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>475</v>
@@ -15529,10 +15529,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>475</v>
@@ -15540,43 +15540,43 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>359</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>358</v>
+        <v>51</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>475</v>
@@ -15584,21 +15584,21 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>459</v>
@@ -15606,10 +15606,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>505</v>
@@ -15617,10 +15617,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>505</v>
@@ -15628,76 +15628,76 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>475</v>
@@ -15708,106 +15708,106 @@
         <v>152</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>475</v>
@@ -15815,10 +15815,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>475</v>
@@ -15829,10 +15829,10 @@
         <v>299</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="293">
@@ -15840,7 +15840,7 @@
         <v>299</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>475</v>
@@ -15851,7 +15851,7 @@
         <v>299</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>475</v>
@@ -15862,7 +15862,7 @@
         <v>299</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>475</v>
@@ -15873,7 +15873,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>475</v>
@@ -15884,7 +15884,7 @@
         <v>299</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>475</v>
@@ -15895,7 +15895,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>475</v>
@@ -15906,7 +15906,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>475</v>
@@ -15917,7 +15917,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>475</v>
@@ -15928,7 +15928,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>475</v>
@@ -15939,7 +15939,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>301</v>
+        <v>143</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>475</v>
@@ -15950,7 +15950,7 @@
         <v>299</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>475</v>
@@ -15961,7 +15961,7 @@
         <v>299</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>475</v>
@@ -15972,7 +15972,7 @@
         <v>299</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>475</v>
@@ -15983,10 +15983,10 @@
         <v>299</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>522</v>
+        <v>475</v>
       </c>
     </row>
     <row r="307">
@@ -15994,7 +15994,7 @@
         <v>299</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>475</v>
@@ -16005,29 +16005,29 @@
         <v>299</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>475</v>
@@ -16035,10 +16035,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>475</v>
@@ -16046,10 +16046,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>475</v>
@@ -16057,87 +16057,87 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C320" t="s" s="0">
         <v>475</v>
@@ -16145,10 +16145,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>475</v>
@@ -16156,10 +16156,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>475</v>
@@ -16167,76 +16167,76 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>471</v>
+        <v>493</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>475</v>
+        <v>504</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="C329" t="s" s="0">
         <v>475</v>
@@ -16244,10 +16244,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>475</v>
@@ -16255,10 +16255,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>475</v>
@@ -16266,10 +16266,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>475</v>
@@ -16277,21 +16277,21 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>475</v>
+        <v>508</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>475</v>
@@ -16299,21 +16299,21 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>475</v>
@@ -16324,10 +16324,10 @@
         <v>80</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338">
@@ -16335,10 +16335,10 @@
         <v>80</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="339">
@@ -16346,9 +16346,119 @@
         <v>80</v>
       </c>
       <c r="B339" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B349" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="C339" t="s" s="0">
+      <c r="C349" t="s" s="0">
         <v>504</v>
       </c>
     </row>
@@ -16949,7 +17059,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
@@ -16957,13 +17067,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
@@ -16971,13 +17081,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>366</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -16991,7 +17101,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
@@ -17005,7 +17115,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>72</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
@@ -17033,7 +17143,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>273</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
@@ -17047,7 +17157,7 @@
         <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>177</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -17061,7 +17171,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -17069,13 +17179,13 @@
         <v>344</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
@@ -17097,13 +17207,13 @@
         <v>344</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
@@ -17139,13 +17249,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>323</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17">
@@ -17153,13 +17263,13 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>254</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18">
@@ -17173,7 +17283,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>181</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19">
@@ -17181,13 +17291,13 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>22</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20">
@@ -17195,13 +17305,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>380</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -17215,7 +17325,7 @@
         <v>36</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>267</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22">
@@ -17223,13 +17333,13 @@
         <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>321</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
@@ -17237,13 +17347,13 @@
         <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>383</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24">
@@ -17299,7 +17409,7 @@
         <v>36</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -17313,7 +17423,7 @@
         <v>36</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -17335,13 +17445,13 @@
         <v>350</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31">
@@ -17369,7 +17479,7 @@
         <v>36</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -17411,7 +17521,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -17523,7 +17633,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -17551,7 +17661,7 @@
         <v>36</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>12</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
@@ -17559,13 +17669,13 @@
         <v>101</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -17573,7 +17683,7 @@
         <v>101</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>36</v>
@@ -17587,13 +17697,13 @@
         <v>101</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>409</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -17621,7 +17731,7 @@
         <v>36</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -17635,7 +17745,7 @@
         <v>36</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
@@ -17649,7 +17759,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -17671,13 +17781,13 @@
         <v>42</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55">
@@ -17691,7 +17801,7 @@
         <v>36</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -17719,7 +17829,7 @@
         <v>36</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -17783,7 +17893,7 @@
         <v>92</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>36</v>
@@ -17797,13 +17907,13 @@
         <v>92</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -17811,7 +17921,7 @@
         <v>92</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>36</v>
@@ -17825,7 +17935,7 @@
         <v>92</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>36</v>
@@ -17839,13 +17949,13 @@
         <v>92</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -17867,13 +17977,13 @@
         <v>181</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69">
@@ -17881,13 +17991,13 @@
         <v>181</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>366</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70">
@@ -17895,13 +18005,13 @@
         <v>181</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>424</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71">
@@ -17923,13 +18033,13 @@
         <v>208</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>321</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73">
@@ -17937,13 +18047,13 @@
         <v>208</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74">
@@ -17951,13 +18061,13 @@
         <v>208</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>249</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75">
@@ -18010,10 +18120,10 @@
         <v>429</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>12</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79">
@@ -18021,13 +18131,13 @@
         <v>219</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>431</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80">
@@ -18035,13 +18145,13 @@
         <v>219</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>366</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -18049,13 +18159,13 @@
         <v>249</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>366</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82">
@@ -18063,13 +18173,13 @@
         <v>249</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>274</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83">
@@ -18077,13 +18187,13 @@
         <v>249</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>188</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84">
@@ -18091,13 +18201,13 @@
         <v>249</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
@@ -18105,13 +18215,13 @@
         <v>249</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>321</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86">
@@ -18119,13 +18229,13 @@
         <v>254</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87">
@@ -18133,13 +18243,13 @@
         <v>254</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88">
@@ -18147,13 +18257,13 @@
         <v>267</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89">
@@ -18189,7 +18299,7 @@
         <v>278</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>36</v>
@@ -18203,7 +18313,7 @@
         <v>278</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>36</v>
@@ -18217,13 +18327,13 @@
         <v>190</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
@@ -18231,13 +18341,13 @@
         <v>190</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>409</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -18245,7 +18355,7 @@
         <v>190</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>36</v>
@@ -18259,7 +18369,7 @@
         <v>190</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>36</v>
@@ -18273,13 +18383,13 @@
         <v>190</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
@@ -18287,7 +18397,7 @@
         <v>190</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>36</v>
@@ -18301,13 +18411,13 @@
         <v>190</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
@@ -18315,7 +18425,7 @@
         <v>190</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>36</v>
@@ -18329,7 +18439,7 @@
         <v>190</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>36</v>
@@ -18343,13 +18453,13 @@
         <v>190</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
@@ -18357,7 +18467,7 @@
         <v>190</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>36</v>
@@ -18371,13 +18481,13 @@
         <v>190</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
@@ -18385,13 +18495,13 @@
         <v>190</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
@@ -18399,13 +18509,13 @@
         <v>190</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -18413,7 +18523,7 @@
         <v>190</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>36</v>
@@ -18427,13 +18537,13 @@
         <v>190</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>12</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109">
@@ -18441,13 +18551,13 @@
         <v>190</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -18455,13 +18565,13 @@
         <v>190</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -18469,7 +18579,7 @@
         <v>190</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>36</v>
@@ -18483,13 +18593,13 @@
         <v>190</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -18497,13 +18607,13 @@
         <v>284</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>409</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
@@ -18511,13 +18621,13 @@
         <v>284</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>115</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115">
@@ -18525,7 +18635,7 @@
         <v>284</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>36</v>
@@ -18567,13 +18677,13 @@
         <v>353</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119">
@@ -18581,13 +18691,13 @@
         <v>353</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120">
@@ -18595,13 +18705,13 @@
         <v>353</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>438</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121">
@@ -18609,13 +18719,13 @@
         <v>152</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -18623,7 +18733,7 @@
         <v>152</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>36</v>
@@ -18637,7 +18747,7 @@
         <v>152</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>36</v>
@@ -18651,7 +18761,7 @@
         <v>152</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>36</v>
@@ -18665,7 +18775,7 @@
         <v>152</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>36</v>
@@ -18679,7 +18789,7 @@
         <v>152</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>36</v>
@@ -18693,13 +18803,13 @@
         <v>152</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
@@ -18707,7 +18817,7 @@
         <v>152</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>36</v>
@@ -18735,13 +18845,13 @@
         <v>299</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>12</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131">
@@ -18749,13 +18859,13 @@
         <v>299</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -18777,13 +18887,13 @@
         <v>299</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -18791,7 +18901,7 @@
         <v>299</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>36</v>
@@ -18805,13 +18915,13 @@
         <v>299</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>115</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136">
@@ -18819,13 +18929,13 @@
         <v>299</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
@@ -18833,7 +18943,7 @@
         <v>299</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>36</v>
@@ -18853,7 +18963,7 @@
         <v>36</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>316</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139">
@@ -18861,13 +18971,13 @@
         <v>299</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>409</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
@@ -18875,13 +18985,13 @@
         <v>299</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141">
@@ -18895,7 +19005,7 @@
         <v>36</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142">
@@ -18903,13 +19013,13 @@
         <v>319</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143">
@@ -18923,7 +19033,7 @@
         <v>36</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>24</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144">
@@ -18931,13 +19041,13 @@
         <v>327</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>365</v>
+        <v>449</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>366</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145">
@@ -18945,13 +19055,13 @@
         <v>327</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>450</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146">
@@ -18973,13 +19083,13 @@
         <v>329</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148">
@@ -19015,7 +19125,7 @@
         <v>80</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>36</v>
@@ -19029,13 +19139,13 @@
         <v>80</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152">
@@ -19043,7 +19153,7 @@
         <v>80</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>36</v>
